--- a/Planilha Teste.xlsx
+++ b/Planilha Teste.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erivaldo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erivaldo\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24155E72-EAF9-4886-93AC-72F28D0B0AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579CF4A3-08B2-4877-A59B-DAC91C427464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E4A40CB9-908A-4EB6-A3C3-60C2EEDA6552}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{E4A40CB9-908A-4EB6-A3C3-60C2EEDA6552}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Nome</t>
   </si>
@@ -72,13 +73,28 @@
   </si>
   <si>
     <t>Mariana</t>
+  </si>
+  <si>
+    <t>Municipios</t>
+  </si>
+  <si>
+    <t>População</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>São josé do rio preto</t>
+  </si>
+  <si>
+    <t>Levantamento Populacional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +133,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +181,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -162,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -173,6 +211,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,4 +654,70 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4D30E1-C2B8-4116-9271-E11497D46346}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12038175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>420.00299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>23945873</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Planilha Teste.xlsx
+++ b/Planilha Teste.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erivaldo\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579CF4A3-08B2-4877-A59B-DAC91C427464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB393015-BB2C-43CC-8F99-F2689B7F8500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{E4A40CB9-908A-4EB6-A3C3-60C2EEDA6552}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E4A40CB9-908A-4EB6-A3C3-60C2EEDA6552}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Nome</t>
   </si>
@@ -84,17 +85,135 @@
     <t>São Paulo</t>
   </si>
   <si>
-    <t>São josé do rio preto</t>
-  </si>
-  <si>
     <t>Levantamento Populacional</t>
+  </si>
+  <si>
+    <t>Guarulhos</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>São Bernardo do Campo</t>
+  </si>
+  <si>
+    <t>Santo andré</t>
+  </si>
+  <si>
+    <t>Osasco</t>
+  </si>
+  <si>
+    <t>São José dos campos</t>
+  </si>
+  <si>
+    <t>Ribeirão preto</t>
+  </si>
+  <si>
+    <t>sorocaba</t>
+  </si>
+  <si>
+    <t>Mauá</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>São josé do Rio Preto</t>
+  </si>
+  <si>
+    <t>Mogi das cruzes</t>
+  </si>
+  <si>
+    <t>Diadema</t>
+  </si>
+  <si>
+    <t>Jundiai</t>
+  </si>
+  <si>
+    <t>Carapicuiba</t>
+  </si>
+  <si>
+    <t>Piracicaba</t>
+  </si>
+  <si>
+    <t>Bauru</t>
+  </si>
+  <si>
+    <t>São Vicente</t>
+  </si>
+  <si>
+    <t>Itaquacetuba</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Adição</t>
+  </si>
+  <si>
+    <t>Subtração</t>
+  </si>
+  <si>
+    <t>Inversão</t>
+  </si>
+  <si>
+    <t>Multiplicação</t>
+  </si>
+  <si>
+    <t>Divisão</t>
+  </si>
+  <si>
+    <t>Exponenciação</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>4 x 3</t>
+  </si>
+  <si>
+    <t>5²</t>
+  </si>
+  <si>
+    <t>7 + 3</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Cláudia</t>
+  </si>
+  <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota 2 </t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0\º"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +263,39 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -200,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -218,6 +370,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,66 +822,519 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4D30E1-C2B8-4116-9271-E11497D46346}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C3" s="6">
         <v>12038175</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1357087</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1173370</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
+        <v>712749</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>696382</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6">
+        <v>695992</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6">
+        <v>674405</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6">
+        <v>652481</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6">
+        <v>457696</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6">
+        <v>446649</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6">
+        <v>434359</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6">
+        <v>429321</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6">
+        <v>415180</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6">
+        <v>405740</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
-        <v>123.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>420.00299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>23945873</v>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <v>394465</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6">
+        <v>394419</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6">
+        <v>369368</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6">
+        <v>357989</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="6">
+        <v>356774</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6">
+        <v>82242</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D22">
+    <sortCondition descending="1" ref="C3:C22"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE046D65-FAAC-4B4C-8823-9CDA9180FE5F}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1">
+        <f xml:space="preserve"> 7 + 3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45358</v>
+      </c>
+      <c r="C2">
+        <f xml:space="preserve"> 7-3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>-8</v>
+      </c>
+      <c r="C3">
+        <f>-8</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <f>4*3</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="14">
+        <v>45330</v>
+      </c>
+      <c r="C5">
+        <f>8/2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <f>5^2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <f>20%</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="C10" s="18">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18">
+        <f>(B10+C10)/2</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18">
+        <f>(B11+C11)/2</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="18">
+        <v>5</v>
+      </c>
+      <c r="C12" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="D12" s="18">
+        <f>(B12+C12)/2</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="C13" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="D13" s="18">
+        <f>(B13+C13)/2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="18">
+        <f>(D10+D11+D12+D13)/4</f>
+        <v>7.3125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Planilha Teste.xlsx
+++ b/Planilha Teste.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erivaldo\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB393015-BB2C-43CC-8F99-F2689B7F8500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306F4F5F-08FD-4436-84A1-CEBCAFF498B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E4A40CB9-908A-4EB6-A3C3-60C2EEDA6552}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{E4A40CB9-908A-4EB6-A3C3-60C2EEDA6552}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Estado">Planilha2!$D:$D</definedName>
+    <definedName name="Municipios">Planilha2!$B$2</definedName>
+    <definedName name="População">Planilha2!$C:$C</definedName>
+    <definedName name="Status">Planilha2!$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Nome</t>
   </si>
@@ -109,9 +115,6 @@
     <t>Ribeirão preto</t>
   </si>
   <si>
-    <t>sorocaba</t>
-  </si>
-  <si>
     <t>Mauá</t>
   </si>
   <si>
@@ -203,6 +206,48 @@
   </si>
   <si>
     <t>Média</t>
+  </si>
+  <si>
+    <t>Total Populacional</t>
+  </si>
+  <si>
+    <t>Média  Populacional</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Maior</t>
+  </si>
+  <si>
+    <t>Total de Municípios</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>População do RJ</t>
+  </si>
+  <si>
+    <t>População de Sp</t>
+  </si>
+  <si>
+    <t>Mun. Do Rio</t>
+  </si>
+  <si>
+    <t>Mun. De Sampa</t>
+  </si>
+  <si>
+    <t>Sorocaba</t>
+  </si>
+  <si>
+    <t>Média Pop.RJ</t>
+  </si>
+  <si>
+    <t>Média Pop.SP</t>
   </si>
 </sst>
 </file>
@@ -211,7 +256,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0\º"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -340,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -348,11 +393,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -366,27 +463,218 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -822,323 +1110,577 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4D30E1-C2B8-4116-9271-E11497D46346}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="19">
+        <v>12038175</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="16" t="str">
+        <f>IF(D3="SP","Paulista", "Carioca")</f>
+        <v>Paulista</v>
+      </c>
+      <c r="F3" s="16" t="str">
+        <f>IF(C3&gt;500000,"Grande", "Pequeno")</f>
+        <v>Grande</v>
+      </c>
+      <c r="J3" s="6">
+        <f>SUM(C3:C22)</f>
+        <v>22544843</v>
+      </c>
+      <c r="K3" s="6">
+        <f>AVERAGE(C3:C22)</f>
+        <v>1127242.1499999999</v>
+      </c>
+      <c r="L3" s="6">
+        <f>LARGE(C3:C22,1)</f>
+        <v>12038175</v>
+      </c>
+      <c r="M3">
+        <f>SMALL(C3:C22,1)</f>
+        <v>82242</v>
+      </c>
+      <c r="N3" s="6">
+        <f>AVERAGEIF(D3:D22,"=RJ",C3:C22)</f>
+        <v>379792.5</v>
+      </c>
+      <c r="O3" s="6">
+        <f>AVERAGEIF(D3:D22,"=SP",C3:C22)</f>
+        <v>1447577.7142857143</v>
+      </c>
+      <c r="P3">
+        <f>COUNT(C3:C22)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1357087</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="16" t="str">
+        <f t="shared" ref="E4:E22" si="0">IF(D4="SP","Paulista", "Carioca")</f>
+        <v>Paulista</v>
+      </c>
+      <c r="F4" s="16" t="str">
+        <f t="shared" ref="F4:F22" si="1">IF(C4&gt;500000,"Grande", "Pequeno")</f>
+        <v>Grande</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19">
+        <v>1173370</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Grande</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="J5" s="6">
+        <f>SUMIF(Estado,"=RJ",População )</f>
+        <v>2278755</v>
+      </c>
+      <c r="K5" s="6">
+        <f>SUMIF(D3:D22,"=SP",C3:C22 )</f>
+        <v>20266088</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIF(D3:D22,"=RJ")</f>
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIF(D3:D22,"=SP")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19">
+        <v>712749</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Grande</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="19">
+        <v>696382</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Grande</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="19">
+        <v>695992</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Grande</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="19">
+        <v>674405</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Grande</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="19">
+        <v>652481</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Grande</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19">
+        <v>457696</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19">
+        <v>446649</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="19">
+        <v>434359</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="19">
+        <v>429321</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19">
+        <v>415180</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="19">
+        <v>405740</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6">
-        <v>12038175</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Carioca</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="19">
+        <v>394465</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Carioca</v>
+      </c>
+      <c r="F17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
-        <v>1357087</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="19">
+        <v>394419</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Carioca</v>
+      </c>
+      <c r="F18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="C5" s="6">
-        <v>1173370</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="19">
+        <v>369368</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Carioca</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="19">
+        <v>357989</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Carioca</v>
+      </c>
+      <c r="F20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="C6" s="6">
-        <v>712749</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="19">
+        <v>356774</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Carioca</v>
+      </c>
+      <c r="F21" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="C7" s="6">
-        <v>696382</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6">
-        <v>695992</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6">
-        <v>674405</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6">
-        <v>652481</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6">
-        <v>457696</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6">
-        <v>446649</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6">
-        <v>434359</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6">
-        <v>429321</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6">
-        <v>415180</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6">
-        <v>405740</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="B22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="19">
+        <v>82242</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6">
-        <v>394465</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6">
-        <v>394419</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="6">
-        <v>369368</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6">
-        <v>357989</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6">
-        <v>356774</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6">
-        <v>82242</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>37</v>
+      <c r="E22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulista</v>
+      </c>
+      <c r="F22" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pequeno</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1691,55 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D22">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"SP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"RJ"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C22">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF8A6EFB-3AD3-4E65-AFE6-D9253E336541}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Quarters">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="300000"/>
+        <cfvo type="num" val="700000"/>
+        <cfvo type="num" val="1000000"/>
+        <cfvo type="num" val="5000000"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF8A6EFB-3AD3-4E65-AFE6-D9253E336541}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C22</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1157,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE046D65-FAAC-4B4C-8823-9CDA9180FE5F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1167,11 +1757,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
-        <v>39</v>
+      <c r="A1" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1">
         <f xml:space="preserve"> 7 + 3</f>
@@ -1179,10 +1769,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10">
         <v>45358</v>
       </c>
       <c r="C2">
@@ -1191,8 +1781,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
+      <c r="A3" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B3">
         <v>-8</v>
@@ -1203,11 +1793,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>42</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <f>4*3</f>
@@ -1215,10 +1805,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="14">
+      <c r="A5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="10">
         <v>45330</v>
       </c>
       <c r="C5">
@@ -1227,11 +1817,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>44</v>
+      <c r="A6" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <f>5^2</f>
@@ -1239,10 +1829,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="15">
+      <c r="A7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11">
         <v>0.2</v>
       </c>
       <c r="C7">
@@ -1251,85 +1841,85 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="14">
         <v>9.5</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="14">
         <v>8</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="14">
         <f>(B10+C10)/2</f>
         <v>8.75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="18">
+      <c r="A11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="14">
         <v>8.5</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <v>4</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="14">
         <f>(B11+C11)/2</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="18">
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="14">
         <v>5</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>9.5</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="14">
         <f>(B12+C12)/2</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="18">
+      <c r="A13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="14">
         <v>8.5</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>5.5</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="14">
         <f>(B13+C13)/2</f>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="18">
+        <v>53</v>
+      </c>
+      <c r="D14" s="14">
         <f>(D10+D11+D12+D13)/4</f>
         <v>7.3125</v>
       </c>
